--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_545.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_545.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d77567-Reviews-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Long-Beach-International-City.h1068961.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_545.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_545.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,397 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r458066211-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>77567</t>
+  </si>
+  <si>
+    <t>458066211</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Great place and convenient to downtown Long Beach.  Safe.</t>
+  </si>
+  <si>
+    <t>Convenient to downtown Long Beach. Safe.  Wonderful and helpful front office staff.  Excellent housekeeping and maintenance staff. Every room has a refrigerator and a microwave. On-site laundry facility. Free Wifi. Pet friendly. Great cafe next door. CVR store and pharmacy just down the street.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r437220788-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>437220788</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>I've Seen Better and I've Seen Worse!</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights with an out of town friend when he was in town.  Room was just okay. Positives:Room had a microwave and small frig.  Plenty of free parking.  Front desk person was friendly.  Negatives:Small shower with curtain was not very clean.  No tub.Vessel sink was very awkward and not for short people.Lots of undesirables in parking lot, including drug dealers.Could hear neighbors all night long.Linens were threadbare and permanently stained.A large moving truck was parked under our second story window making it easy for someone to break into our room.  A similar truck is usually parked in the same place.All in all, you get what you pay for, but there are better places in the area in the same price range if you book early enough to find vacancies.  Can't say I would never stay there again if we couldn't find anything else, but it would certainly not be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights with an out of town friend when he was in town.  Room was just okay. Positives:Room had a microwave and small frig.  Plenty of free parking.  Front desk person was friendly.  Negatives:Small shower with curtain was not very clean.  No tub.Vessel sink was very awkward and not for short people.Lots of undesirables in parking lot, including drug dealers.Could hear neighbors all night long.Linens were threadbare and permanently stained.A large moving truck was parked under our second story window making it easy for someone to break into our room.  A similar truck is usually parked in the same place.All in all, you get what you pay for, but there are better places in the area in the same price range if you book early enough to find vacancies.  Can't say I would never stay there again if we couldn't find anything else, but it would certainly not be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r403725782-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>403725782</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Clean and Quiet</t>
+  </si>
+  <si>
+    <t>The property is tiny but my check in was easy and room was clean. Bathroom was very small might be smarter to put in a sliding door. The room had a microwave and a fridge! Wifi worked well! The parking lot is very tiny. A/c worked well and room was quiet. Area is not that great but for just sleeping its a good motel.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r373872583-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>373872583</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Clean complete</t>
+  </si>
+  <si>
+    <t>Very spacious and updated counters granite pleasant to the eyes, clean. It contradicts my perception of a motel that is just for people who wants something to "happen". Lately ive seen families occupying motels and like i said i did not think motel 6 exceeded my expectation..</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r372717811-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>372717811</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights as were one a budget for our American Golden triangle road trip. Great staff and good accommodation for what you pay for. Only thing I would say is the local area around the hotel is not safe, and the other motel guests would be intimidating to some people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r353980917-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>353980917</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff, friendlier roaches</t>
+  </si>
+  <si>
+    <t>We checked in the night before the Long Beach Marathon.  This hotel was in a great location within walking distance to the start of the marathon and downtown tourist areas.
+The check in was smooth with a friendly lady at the front desk.  
+The room was typical Motel 6, very basic but comfortable.  The mattress wasn't uncomfortable.  Part of the reason we booked this hotel was because it had a refrigerator and microwave oven. (These amenities were essential for us because of special nutritional needs for the run).  The bathroom appeared clean but had a dripping tub spout and some black specks on the fiberglass tub.  It was hard to determine the cleanliness of the floor.  I didn't know if it was dirty or aged.  
+We slept well although the noise level around the area was a bit high and the sound insulation not as good as it would have been, but I can't complain about the mattress.  
+Now the roaches...  Time for a pre-race shower.  I turned on the shower and gave it a few seconds for the hot water to make it's way to the shower.  As the water ran in, the black specks washed away.  My thought was that it was dirt specks or something, probably from housekeeping shaking out the cleaning rag after wiping the tub.
+A few hours later after the run we returned to the room to shower and head to breakfast before checking...We checked in the night before the Long Beach Marathon.  This hotel was in a great location within walking distance to the start of the marathon and downtown tourist areas.The check in was smooth with a friendly lady at the front desk.  The room was typical Motel 6, very basic but comfortable.  The mattress wasn't uncomfortable.  Part of the reason we booked this hotel was because it had a refrigerator and microwave oven. (These amenities were essential for us because of special nutritional needs for the run).  The bathroom appeared clean but had a dripping tub spout and some black specks on the fiberglass tub.  It was hard to determine the cleanliness of the floor.  I didn't know if it was dirty or aged.  We slept well although the noise level around the area was a bit high and the sound insulation not as good as it would have been, but I can't complain about the mattress.  Now the roaches...  Time for a pre-race shower.  I turned on the shower and gave it a few seconds for the hot water to make it's way to the shower.  As the water ran in, the black specks washed away.  My thought was that it was dirt specks or something, probably from housekeeping shaking out the cleaning rag after wiping the tub.A few hours later after the run we returned to the room to shower and head to breakfast before checking out.  We noticed the black specks were back.  I knew housekeeping didn't come so I looked closer at the "specks".  They were baby roaches!  LOTS of them!I went to the front desk to notify the staff.  There was a person checking in at the front desk.  I thought I'd be discrete about the roaches so they could address the problem and not scare the new guest away.  I didn't know if it was a problem with the hotel or just the room I was in.  The person said "Thank you, I'll let housekeeping know".  I said I was just going to check out and drive up to Los Angeles and shower at home because I was grossed out.  She said "OK".  She didn't offer anything else.  No apology, nothing like "I'm sorry, I'll have the manager/head of housekeeping call you", no discount or whatever anyone else would offer when a legitimate complaint is logged.  (I didn't expect anything but I expected her to take it seriously and at least act concerned).Because this obvious lack of interest I thought it must be a bigger or common complaint, she didn't act surprised at all.  I decided to call the hotel and ask for the manager the next day.  I was told the manager was out sick and would call me back when she returned.  I gave it 4 days and called back.  The manger was unavailable but would call me back.  Again, nothing.  At this point I felt like they had a problem, were aware of it and just didn't care.  I attempted to call two more times, when asked what I needed, I told the person on the other end of the phone and was told the "manager would call me back".  No call back, no concern.  Stay away and don't risk taking roaches home with you.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Long Beach - International City, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>We checked in the night before the Long Beach Marathon.  This hotel was in a great location within walking distance to the start of the marathon and downtown tourist areas.
+The check in was smooth with a friendly lady at the front desk.  
+The room was typical Motel 6, very basic but comfortable.  The mattress wasn't uncomfortable.  Part of the reason we booked this hotel was because it had a refrigerator and microwave oven. (These amenities were essential for us because of special nutritional needs for the run).  The bathroom appeared clean but had a dripping tub spout and some black specks on the fiberglass tub.  It was hard to determine the cleanliness of the floor.  I didn't know if it was dirty or aged.  
+We slept well although the noise level around the area was a bit high and the sound insulation not as good as it would have been, but I can't complain about the mattress.  
+Now the roaches...  Time for a pre-race shower.  I turned on the shower and gave it a few seconds for the hot water to make it's way to the shower.  As the water ran in, the black specks washed away.  My thought was that it was dirt specks or something, probably from housekeeping shaking out the cleaning rag after wiping the tub.
+A few hours later after the run we returned to the room to shower and head to breakfast before checking...We checked in the night before the Long Beach Marathon.  This hotel was in a great location within walking distance to the start of the marathon and downtown tourist areas.The check in was smooth with a friendly lady at the front desk.  The room was typical Motel 6, very basic but comfortable.  The mattress wasn't uncomfortable.  Part of the reason we booked this hotel was because it had a refrigerator and microwave oven. (These amenities were essential for us because of special nutritional needs for the run).  The bathroom appeared clean but had a dripping tub spout and some black specks on the fiberglass tub.  It was hard to determine the cleanliness of the floor.  I didn't know if it was dirty or aged.  We slept well although the noise level around the area was a bit high and the sound insulation not as good as it would have been, but I can't complain about the mattress.  Now the roaches...  Time for a pre-race shower.  I turned on the shower and gave it a few seconds for the hot water to make it's way to the shower.  As the water ran in, the black specks washed away.  My thought was that it was dirt specks or something, probably from housekeeping shaking out the cleaning rag after wiping the tub.A few hours later after the run we returned to the room to shower and head to breakfast before checking out.  We noticed the black specks were back.  I knew housekeeping didn't come so I looked closer at the "specks".  They were baby roaches!  LOTS of them!I went to the front desk to notify the staff.  There was a person checking in at the front desk.  I thought I'd be discrete about the roaches so they could address the problem and not scare the new guest away.  I didn't know if it was a problem with the hotel or just the room I was in.  The person said "Thank you, I'll let housekeeping know".  I said I was just going to check out and drive up to Los Angeles and shower at home because I was grossed out.  She said "OK".  She didn't offer anything else.  No apology, nothing like "I'm sorry, I'll have the manager/head of housekeeping call you", no discount or whatever anyone else would offer when a legitimate complaint is logged.  (I didn't expect anything but I expected her to take it seriously and at least act concerned).Because this obvious lack of interest I thought it must be a bigger or common complaint, she didn't act surprised at all.  I decided to call the hotel and ask for the manager the next day.  I was told the manager was out sick and would call me back when she returned.  I gave it 4 days and called back.  The manger was unavailable but would call me back.  Again, nothing.  At this point I felt like they had a problem, were aware of it and just didn't care.  I attempted to call two more times, when asked what I needed, I told the person on the other end of the phone and was told the "manager would call me back".  No call back, no concern.  Stay away and don't risk taking roaches home with you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r298134242-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>298134242</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Week long stay</t>
+  </si>
+  <si>
+    <t>We were in Long Beach for Special Olympics World Games. Checked in 24 July, checked out 3 August 2015. The staff was very polite and courteous. Our room was clean and comfortable. The parking was good. We had read about the noise at night but found it pretty quiet for a motel. Free wi-fi was pretty fast compared to other locations on the route. Coffe was ready every morning. Free copy of local paper provided. An excellent experience.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r293749308-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>293749308</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Retro Motel 6</t>
+  </si>
+  <si>
+    <t>Found Motel 6 "clean" with spotless  laminated floors, retro chairs, built in flat screen TV, new towel shelves, retro bed, along with more than the average number of electric plugs to recharge  your computer, mobiles. This motel is located within 10 minute's of downtown and the beach. There were yoga classes, biking, jogging all along Ocean Blvd. Found the gas prices unreal $4:45 to $:65 a gallon #$%^&amp;*.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r284847516-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>284847516</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>clean but lazy</t>
+  </si>
+  <si>
+    <t>we passed there the last night april 30th and before i booked i wanted to know "is it possible to get at 4 a.m. a wake up call??? yes said the clerk and put us into a  book - the problem was there was no wake up call - at 4.30 a.m. we did run direction lax - and there was too no night clerk.everything else was fine but things like this should not happen - we almost missed our flight to europe....</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r240542565-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>240542565</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>Thanks god i didn't read the comments before booking my room here... fortunatly cause otherwise i probably won't. My non smoking room was just a spacious clean paradise with 2 large beds, with immaculate white bedsheets. Everything was super clean like if is was brand new. I think the motel has been completely renovated, that's why perhaps there is such a big difference between my comment and the olders. So i hope my contribution will ensure justice to this great cheap place.About the neighborhood, i can say i have walked at 2am safely 30minutes on pacific coast hwy to find some food. The only absurd thing : impossible to order a burger at the close "jack in the box" without a car (to a drive) for safety reasons... Absurd et stupid, but it's another story.MoreShow less</t>
+  </si>
+  <si>
+    <t>Thanks god i didn't read the comments before booking my room here... fortunatly cause otherwise i probably won't. My non smoking room was just a spacious clean paradise with 2 large beds, with immaculate white bedsheets. Everything was super clean like if is was brand new. I think the motel has been completely renovated, that's why perhaps there is such a big difference between my comment and the olders. So i hope my contribution will ensure justice to this great cheap place.About the neighborhood, i can say i have walked at 2am safely 30minutes on pacific coast hwy to find some food. The only absurd thing : impossible to order a burger at the close "jack in the box" without a car (to a drive) for safety reasons... Absurd et stupid, but it's another story.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r223470831-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>223470831</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Motel 6 takes a step ahead of the rest</t>
+  </si>
+  <si>
+    <t>We stayed at about 9 or 10 Motel 6s during our trip and this is another great updated place to stay.Good parking, safe, clean, nice staff, lots of TV channels to choose from.There is a resturant right next door but never went in.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r219753987-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>219753987</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights and was disgusted, only we couldn't find anywhere else to stay at such short notice and were told we couldn't have a refund so we had to stick it out. The room was FILTHY. After getting out the tiny, leaking shower and walking back to the bed my feet were black from the dirt on the floor. There was rubbish under one of the beds from the previous occupants that hadn't been cleaned. We told the staff at the front desk this and yet nothing was done. The other occupants were noisy as hell and were smoking drugs on the stairwell. I didn't feel safe here at all. Don't stay here under any circumstances. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights and was disgusted, only we couldn't find anywhere else to stay at such short notice and were told we couldn't have a refund so we had to stick it out. The room was FILTHY. After getting out the tiny, leaking shower and walking back to the bed my feet were black from the dirt on the floor. There was rubbish under one of the beds from the previous occupants that hadn't been cleaned. We told the staff at the front desk this and yet nothing was done. The other occupants were noisy as hell and were smoking drugs on the stairwell. I didn't feel safe here at all. Don't stay here under any circumstances. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r181005566-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>181005566</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Pretty nice for a Motel 6</t>
+  </si>
+  <si>
+    <t>It was pretty nice, for Motel 6 standards. It's newly remodeled, although they replaced the carpet with parquet flooring which was kind of weird. The beds were comfy but the sheets were wrinkled and the pillows were awful. The towels were scratchy and not exactly bright white and they give you bar soap only, no shampoo, conditioner or lotion, but we did have a fridge and microwave which was nice. The weather was cool enough, we didn't need heat or A/C so we just ran the unit on circulate which helped drown out any noise through the night. Some of the other hotel guests were a little sketchy but overall, I was pretty satisfied with my stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>It was pretty nice, for Motel 6 standards. It's newly remodeled, although they replaced the carpet with parquet flooring which was kind of weird. The beds were comfy but the sheets were wrinkled and the pillows were awful. The towels were scratchy and not exactly bright white and they give you bar soap only, no shampoo, conditioner or lotion, but we did have a fridge and microwave which was nice. The weather was cool enough, we didn't need heat or A/C so we just ran the unit on circulate which helped drown out any noise through the night. Some of the other hotel guests were a little sketchy but overall, I was pretty satisfied with my stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r176092263-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>176092263</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>who knew?</t>
+  </si>
+  <si>
+    <t>Usually you think of a motel 6 as " slumming it" but no way! I recently was transporting my 4  rescued German shepherds 2 adults and 2 puppies,home from california to vancouver and had to find a place to accommodate them,  until I flew them home the next day,and I found this Motel. It was awesome. Newly renovated, super clean, laminate floors Modern decor, clean... very reasonable and handy! Don't underestimate the motel 6 chain.. I think they are stepping up their game.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r164438379-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>164438379</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>If you want a good night's sleep... bring ear plugs!</t>
+  </si>
+  <si>
+    <t>I guess everyone one knows that on the weekends Motel 6's are known as "Party Central", but Monday thru Thursday too??? The rooms are updated, kinda modern and snazzy, and the bathroom sinks were ok... if you're about 6'5". The low flow shower heads are so low flow that the flow is little more than a sprinkling stream. The beds are as hard as a rock with cigarette burns in the bedspread and the "clean" sheets and pillowcases had hair all over them! Ewwwwwww! (I always bring a 4" viscosity mattress with my own sheets, pillows and towels.) The air conditioner is great, it can freeze you out, if you happen to get a good one. Thank goodness, staff are all very friendly and helpful and the new restaurant across the way, called "The Loaded Kitchen", (such a strange name...) actually has pretty good food. Over all, it'll do in a pinch... and it IS better than a cardboard box...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I guess everyone one knows that on the weekends Motel 6's are known as "Party Central", but Monday thru Thursday too??? The rooms are updated, kinda modern and snazzy, and the bathroom sinks were ok... if you're about 6'5". The low flow shower heads are so low flow that the flow is little more than a sprinkling stream. The beds are as hard as a rock with cigarette burns in the bedspread and the "clean" sheets and pillowcases had hair all over them! Ewwwwwww! (I always bring a 4" viscosity mattress with my own sheets, pillows and towels.) The air conditioner is great, it can freeze you out, if you happen to get a good one. Thank goodness, staff are all very friendly and helpful and the new restaurant across the way, called "The Loaded Kitchen", (such a strange name...) actually has pretty good food. Over all, it'll do in a pinch... and it IS better than a cardboard box...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r140102271-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>140102271</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>Modern upgrade, but classic problems</t>
+  </si>
+  <si>
+    <t>Stayed here for one evening. Had already realized the motel was in a "lively" neighborhood, but no major issues with crime/transients. Staff was polite &amp; efficient.Room looked very modern &amp; minimalist; however, it was very hot when I checked in, &amp; took a long time to cool off. Bathroom: the new modernist towel holder was already popping loose, and the vessel sink didn't leave any room for toiletries. THE SHOWER TOOK 20+ MINUTES TO WARM UP.Biggest issue: parking. I was barely able to get my pickup truck into a parking space when I checked in. But in the morning, I was completely blocked in by other vehicles, including two large trucks. Even though I had an early meeting, I had to wait for other vehicles to move &amp; leave before I could painstakingly maneuver out of the lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for one evening. Had already realized the motel was in a "lively" neighborhood, but no major issues with crime/transients. Staff was polite &amp; efficient.Room looked very modern &amp; minimalist; however, it was very hot when I checked in, &amp; took a long time to cool off. Bathroom: the new modernist towel holder was already popping loose, and the vessel sink didn't leave any room for toiletries. THE SHOWER TOOK 20+ MINUTES TO WARM UP.Biggest issue: parking. I was barely able to get my pickup truck into a parking space when I checked in. But in the morning, I was completely blocked in by other vehicles, including two large trucks. Even though I had an early meeting, I had to wait for other vehicles to move &amp; leave before I could painstakingly maneuver out of the lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r139861703-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>139861703</t>
+  </si>
+  <si>
+    <t>09/09/2012</t>
+  </si>
+  <si>
+    <t>Very average quality, fortunately cheap and close to Long Beach.. But check your room beforehand for smells !</t>
+  </si>
+  <si>
+    <t>I recently stayed at this place... Its was cheap for long beach area... But arrive early and check the room beforehand... Our first room had dirty bed sheets and smelt strange, like dirty AC.... The room we stayed in was borderline...The bed sheets were also old.  The internet worked okay and the fridge was a plus..</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r138812658-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>138812658</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!! PEST ALERT</t>
+  </si>
+  <si>
+    <t>I stayed there for a week, it was horrible! I had dead flies and ants everywhere! Bloody sheets! Burned sheets also! Dirty bathroom with hair balls stuck to the walls and the check in attendants just sit on there butt and use there phone. You can hear everything from each room. The location is in the straight hood!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r45861369-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>45861369</t>
+  </si>
+  <si>
+    <t>10/05/2009</t>
+  </si>
+  <si>
+    <t>any place that accepts pets rates high with me!</t>
+  </si>
+  <si>
+    <t>i actually stayed here not because i was traveling but because the building in which i live had a fire and the red cross found places for the tenants until we were able to return or get resituated elsewhere. (i was lucky, my unit didn't burn and i was able to return home in 6 days).it was really nice to be able to take my cats into the room with me without having to sneak them in. the manager was nice enough and certainly honest as he returned my money for the night when red cross gave him a voucher to cover me for another night. next door is IHOP and they are now open 24/7. the neighborhood is not the greatest by any means and certainly not one that i would be going for an evening stroll in after dark. but i did feel safe in my room and when i walked over to IHOP at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>i actually stayed here not because i was traveling but because the building in which i live had a fire and the red cross found places for the tenants until we were able to return or get resituated elsewhere. (i was lucky, my unit didn't burn and i was able to return home in 6 days).it was really nice to be able to take my cats into the room with me without having to sneak them in. the manager was nice enough and certainly honest as he returned my money for the night when red cross gave him a voucher to cover me for another night. next door is IHOP and they are now open 24/7. the neighborhood is not the greatest by any means and certainly not one that i would be going for an evening stroll in after dark. but i did feel safe in my room and when i walked over to IHOP at night.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1039,1185 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51317</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_545.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_545.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Steve D</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>katestarb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r437220788-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Stayed here for two nights with an out of town friend when he was in town.  Room was just okay. Positives:Room had a microwave and small frig.  Plenty of free parking.  Front desk person was friendly.  Negatives:Small shower with curtain was not very clean.  No tub.Vessel sink was very awkward and not for short people.Lots of undesirables in parking lot, including drug dealers.Could hear neighbors all night long.Linens were threadbare and permanently stained.A large moving truck was parked under our second story window making it easy for someone to break into our room.  A similar truck is usually parked in the same place.All in all, you get what you pay for, but there are better places in the area in the same price range if you book early enough to find vacancies.  Can't say I would never stay there again if we couldn't find anything else, but it would certainly not be my first choice.More</t>
   </si>
   <si>
+    <t>sblibra86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r403725782-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>nadz b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r373872583-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Lewis E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r372717811-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -259,6 +274,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Kerry F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r353980917-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
@@ -298,6 +316,9 @@
 A few hours later after the run we returned to the room to shower and head to breakfast before checking...We checked in the night before the Long Beach Marathon.  This hotel was in a great location within walking distance to the start of the marathon and downtown tourist areas.The check in was smooth with a friendly lady at the front desk.  The room was typical Motel 6, very basic but comfortable.  The mattress wasn't uncomfortable.  Part of the reason we booked this hotel was because it had a refrigerator and microwave oven. (These amenities were essential for us because of special nutritional needs for the run).  The bathroom appeared clean but had a dripping tub spout and some black specks on the fiberglass tub.  It was hard to determine the cleanliness of the floor.  I didn't know if it was dirty or aged.  We slept well although the noise level around the area was a bit high and the sound insulation not as good as it would have been, but I can't complain about the mattress.  Now the roaches...  Time for a pre-race shower.  I turned on the shower and gave it a few seconds for the hot water to make it's way to the shower.  As the water ran in, the black specks washed away.  My thought was that it was dirt specks or something, probably from housekeeping shaking out the cleaning rag after wiping the tub.A few hours later after the run we returned to the room to shower and head to breakfast before checking out.  We noticed the black specks were back.  I knew housekeeping didn't come so I looked closer at the "specks".  They were baby roaches!  LOTS of them!I went to the front desk to notify the staff.  There was a person checking in at the front desk.  I thought I'd be discrete about the roaches so they could address the problem and not scare the new guest away.  I didn't know if it was a problem with the hotel or just the room I was in.  The person said "Thank you, I'll let housekeeping know".  I said I was just going to check out and drive up to Los Angeles and shower at home because I was grossed out.  She said "OK".  She didn't offer anything else.  No apology, nothing like "I'm sorry, I'll have the manager/head of housekeeping call you", no discount or whatever anyone else would offer when a legitimate complaint is logged.  (I didn't expect anything but I expected her to take it seriously and at least act concerned).Because this obvious lack of interest I thought it must be a bigger or common complaint, she didn't act surprised at all.  I decided to call the hotel and ask for the manager the next day.  I was told the manager was out sick and would call me back when she returned.  I gave it 4 days and called back.  The manger was unavailable but would call me back.  Again, nothing.  At this point I felt like they had a problem, were aware of it and just didn't care.  I attempted to call two more times, when asked what I needed, I told the person on the other end of the phone and was told the "manager would call me back".  No call back, no concern.  Stay away and don't risk taking roaches home with you.More</t>
   </si>
   <si>
+    <t>Will B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r298134242-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -316,6 +337,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>CaliforniaWellness</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r293749308-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -334,6 +358,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>biker758</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r284847516-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -352,6 +379,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>GTVG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r240542565-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -370,6 +400,9 @@
     <t>Thanks god i didn't read the comments before booking my room here... fortunatly cause otherwise i probably won't. My non smoking room was just a spacious clean paradise with 2 large beds, with immaculate white bedsheets. Everything was super clean like if is was brand new. I think the motel has been completely renovated, that's why perhaps there is such a big difference between my comment and the olders. So i hope my contribution will ensure justice to this great cheap place.About the neighborhood, i can say i have walked at 2am safely 30minutes on pacific coast hwy to find some food. The only absurd thing : impossible to order a burger at the close "jack in the box" without a car (to a drive) for safety reasons... Absurd et stupid, but it's another story.More</t>
   </si>
   <si>
+    <t>WelcomeMat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r223470831-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -388,6 +421,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Alexandra R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r219753987-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -406,6 +442,9 @@
     <t>Stayed here for a few nights and was disgusted, only we couldn't find anywhere else to stay at such short notice and were told we couldn't have a refund so we had to stick it out. The room was FILTHY. After getting out the tiny, leaking shower and walking back to the bed my feet were black from the dirt on the floor. There was rubbish under one of the beds from the previous occupants that hadn't been cleaned. We told the staff at the front desk this and yet nothing was done. The other occupants were noisy as hell and were smoking drugs on the stairwell. I didn't feel safe here at all. Don't stay here under any circumstances. More</t>
   </si>
   <si>
+    <t>Jill103</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r181005566-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -427,6 +466,9 @@
     <t>It was pretty nice, for Motel 6 standards. It's newly remodeled, although they replaced the carpet with parquet flooring which was kind of weird. The beds were comfy but the sheets were wrinkled and the pillows were awful. The towels were scratchy and not exactly bright white and they give you bar soap only, no shampoo, conditioner or lotion, but we did have a fridge and microwave which was nice. The weather was cool enough, we didn't need heat or A/C so we just ran the unit on circulate which helped drown out any noise through the night. Some of the other hotel guests were a little sketchy but overall, I was pretty satisfied with my stay there.More</t>
   </si>
   <si>
+    <t>LoliB818</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r176092263-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -445,6 +487,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Crystal F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r164438379-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -466,6 +511,9 @@
     <t>I guess everyone one knows that on the weekends Motel 6's are known as "Party Central", but Monday thru Thursday too??? The rooms are updated, kinda modern and snazzy, and the bathroom sinks were ok... if you're about 6'5". The low flow shower heads are so low flow that the flow is little more than a sprinkling stream. The beds are as hard as a rock with cigarette burns in the bedspread and the "clean" sheets and pillowcases had hair all over them! Ewwwwwww! (I always bring a 4" viscosity mattress with my own sheets, pillows and towels.) The air conditioner is great, it can freeze you out, if you happen to get a good one. Thank goodness, staff are all very friendly and helpful and the new restaurant across the way, called "The Loaded Kitchen", (such a strange name...) actually has pretty good food. Over all, it'll do in a pinch... and it IS better than a cardboard box...More</t>
   </si>
   <si>
+    <t>RCMoeur</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r140102271-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -487,6 +535,9 @@
     <t>Stayed here for one evening. Had already realized the motel was in a "lively" neighborhood, but no major issues with crime/transients. Staff was polite &amp; efficient.Room looked very modern &amp; minimalist; however, it was very hot when I checked in, &amp; took a long time to cool off. Bathroom: the new modernist towel holder was already popping loose, and the vessel sink didn't leave any room for toiletries. THE SHOWER TOOK 20+ MINUTES TO WARM UP.Biggest issue: parking. I was barely able to get my pickup truck into a parking space when I checked in. But in the morning, I was completely blocked in by other vehicles, including two large trucks. Even though I had an early meeting, I had to wait for other vehicles to move &amp; leave before I could painstakingly maneuver out of the lot.More</t>
   </si>
   <si>
+    <t>MarkfromPoland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r139861703-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -505,6 +556,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Stephmint123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r138812658-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
   </si>
   <si>
@@ -518,6 +572,9 @@
   </si>
   <si>
     <t>I stayed there for a week, it was horrible! I had dead flies and ants everywhere! Bloody sheets! Burned sheets also! Dirty bathroom with hair balls stuck to the walls and the check in attendants just sit on there butt and use there phone. You can hear everything from each room. The location is in the straight hood!</t>
+  </si>
+  <si>
+    <t>TwistedPrincess</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77567-r45861369-Motel_6_Long_Beach_International_City-Long_Beach_California.html</t>
@@ -1043,43 +1100,47 @@
       <c r="A2" t="n">
         <v>51317</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1099,50 +1160,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>51317</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1156,50 +1221,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>51317</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1217,50 +1286,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>51317</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1274,50 +1347,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>51317</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1331,50 +1408,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>51317</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1392,56 +1473,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>51317</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1459,50 +1544,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>51317</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1520,50 +1609,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>51317</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1581,41 +1674,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>51317</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -1634,50 +1731,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>51317</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1697,41 +1798,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>51317</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1750,50 +1855,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>51317</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1817,50 +1926,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>51317</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1884,50 +1997,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>51317</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -1951,50 +2068,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>51317</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2018,50 +2139,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>51317</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2085,41 +2210,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>51317</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2148,50 +2277,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>51317</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2215,7 +2348,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
